--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,21 @@
     <t>returned</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
@@ -76,169 +73,169 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>every</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
@@ -613,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,16 +692,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3255813953488372</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2323232323232323</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,69 +789,45 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8984375</v>
+      </c>
+      <c r="L5">
+        <v>115</v>
+      </c>
+      <c r="M5">
+        <v>115</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.8653250773993808</v>
-      </c>
-      <c r="L5">
-        <v>559</v>
-      </c>
-      <c r="M5">
-        <v>559</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.1297297297297297</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>161</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>553</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>553</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,38 +839,38 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>0.7792207792207793</v>
+      </c>
+      <c r="L7">
+        <v>60</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>17</v>
-      </c>
-      <c r="K7">
-        <v>0.7532467532467533</v>
-      </c>
-      <c r="L7">
-        <v>58</v>
-      </c>
-      <c r="M7">
-        <v>58</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
         <v>0.7391304347826086</v>
@@ -923,16 +896,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L9">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M9">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.6875</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,21 +943,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6818181818181818</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,21 +969,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1027,16 +1000,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6571428571428571</v>
+        <v>0.6548956661316212</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>816</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>816</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1048,12 +1021,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>60</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
         <v>0.647887323943662</v>
@@ -1079,16 +1052,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6406779661016949</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L15">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1100,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>106</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6388443017656501</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L16">
-        <v>796</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>796</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1126,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6176470588235294</v>
+        <v>0.64</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1152,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6164383561643836</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1183,16 +1156,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6140350877192983</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1204,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1230,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5972222222222222</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1261,16 +1234,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5299145299145299</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1282,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5192307692307693</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L23">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1308,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.4970059880239521</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1334,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.4819277108433735</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1360,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4769230769230769</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1386,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4736842105263158</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1412,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4661654135338346</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1438,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4583333333333333</v>
+        <v>0.4670658682634731</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1464,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4426229508196721</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1490,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4320987654320987</v>
+        <v>0.43</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1516,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4307692307692308</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1542,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4156626506024096</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L33">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1568,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.4126984126984127</v>
+        <v>0.3897058823529412</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1594,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>37</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3774509803921569</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L35">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1620,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>254</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.37</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1646,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.3609022556390977</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L37">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="M37">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1672,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>85</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3385214007782101</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L38">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1698,21 +1671,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>170</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3191780821917808</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L39">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1724,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>497</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.2882882882882883</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1750,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2727272727272727</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L41">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="M41">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1776,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>152</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2592592592592592</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1802,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2583423035522067</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L43">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1828,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>689</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2376237623762376</v>
+        <v>0.2529601722282024</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1854,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>77</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.223021582733813</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1880,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2185430463576159</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L46">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1906,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.213166144200627</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L47">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M47">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1932,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2033248081841432</v>
+        <v>0.2079470198675497</v>
       </c>
       <c r="L48">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M48">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1958,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>623</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1907284768211921</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L49">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1984,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>611</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1879194630872483</v>
+        <v>0.190537084398977</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2010,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>121</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1402439024390244</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2036,99 +2009,99 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.134020618556701</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L52">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M52">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>252</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1260504201680672</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1188118811881188</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>178</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1185983827493261</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L55">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2140,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>327</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1136363636363636</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L56">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M56">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2166,12 +2139,12 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K57">
         <v>0.1097852028639618</v>
@@ -2197,16 +2170,16 @@
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1070559610705596</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="L58">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M58">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2218,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>367</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1030701754385965</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L59">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M59">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2244,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.0962962962962963</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L60">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M60">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2270,47 +2243,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>244</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.08148148148148149</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>248</v>
+        <v>649</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K62">
+        <v>0.06716417910447761</v>
+      </c>
+      <c r="L62">
         <v>72</v>
       </c>
-      <c r="K62">
-        <v>0.07650273224043716</v>
-      </c>
-      <c r="L62">
-        <v>28</v>
-      </c>
       <c r="M62">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2322,73 +2295,73 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>338</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.07476635514018691</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L63">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="N63">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>990</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.06743185078909612</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="L64">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M64">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>650</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>0.04797047970479705</v>
+        <v>0.05166051660516605</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2400,33 +2373,33 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K66">
-        <v>0.03466204506065858</v>
+        <v>0.04065743944636678</v>
       </c>
       <c r="L66">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M66">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N66">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
